--- a/문서화 자료/Result_ALL.xlsx
+++ b/문서화 자료/Result_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서화 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD6936-C8BD-4D93-98AB-29DB8F925582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B47829-CBBD-4569-B2A1-77E809A953CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TRACK1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buf Count1 Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRACK0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GEN0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,22 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PROC0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOCK0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STOCK1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Scenario Num</t>
   </si>
   <si>
@@ -213,6 +181,158 @@
   </si>
   <si>
     <t>Scnario 3 RESULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buf Count 3 Avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEN6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,6 +496,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BD68-4F05-B6F1-F0D5D41A3263}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -391,6 +516,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BD68-4F05-B6F1-F0D5D41A3263}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -406,6 +536,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BD68-4F05-B6F1-F0D5D41A3263}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -421,6 +556,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BD68-4F05-B6F1-F0D5D41A3263}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -652,6 +792,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7F6F-41CD-BFB2-B2F87E722DE3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -667,6 +812,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7F6F-41CD-BFB2-B2F87E722DE3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -682,6 +832,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7F6F-41CD-BFB2-B2F87E722DE3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -697,6 +852,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7F6F-41CD-BFB2-B2F87E722DE3}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -935,6 +1095,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4F34-405F-8DA3-6FFF7BBDB247}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -950,6 +1115,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4F34-405F-8DA3-6FFF7BBDB247}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -965,6 +1135,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4F34-405F-8DA3-6FFF7BBDB247}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -980,6 +1155,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4F34-405F-8DA3-6FFF7BBDB247}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1218,6 +1398,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1233,6 +1418,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1248,6 +1438,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1263,6 +1458,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1505,19 +1705,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GEN</c:v>
+                  <c:v>GEN0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK0</c:v>
+                  <c:v>TRACK1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TRACK1</c:v>
+                  <c:v>TRACK2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PROC</c:v>
+                  <c:v>PROC3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>STOCK</c:v>
+                  <c:v>STOCK4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1832,34 +2032,34 @@
                   <c:v>GEN2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRACK0</c:v>
+                  <c:v>TRACK3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TRACK1</c:v>
+                  <c:v>TRACK4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TRACK2</c:v>
+                  <c:v>TRACK5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TRACK3</c:v>
+                  <c:v>TRACK6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>TRACK4</c:v>
+                  <c:v>TRACK7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TRACK5</c:v>
+                  <c:v>TRACK8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>PROC0</c:v>
+                  <c:v>PROC9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>PROC1</c:v>
+                  <c:v>PROC10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>STOCK0</c:v>
+                  <c:v>STOCK11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>STOCK1</c:v>
+                  <c:v>STOCK12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5568,16 +5768,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5604,16 +5804,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>625475</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5948,27 +6148,27 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5996,7 +6196,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -6062,18 +6262,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -6094,16 +6294,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -6122,27 +6322,27 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -6170,7 +6370,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -6236,18 +6436,18 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -6268,16 +6468,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -6296,27 +6496,27 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -6344,7 +6544,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -6410,18 +6610,18 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -6442,16 +6642,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -6623,37 +6823,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
-  <dimension ref="A2:M12"/>
+  <dimension ref="A2:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D17" activeCellId="7" sqref="A16 A17 B16 B17 C16 C17 D16 D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.27183406100000002</v>
       </c>
@@ -6670,53 +6870,53 @@
         <v>3.7639257289999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.129151292</v>
       </c>
@@ -6755,6 +6955,213 @@
       </c>
       <c r="M12">
         <v>0.53846153799999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" t="s">
+        <v>60</v>
+      </c>
+      <c r="V16" t="s">
+        <v>61</v>
+      </c>
+      <c r="W16" t="s">
+        <v>62</v>
+      </c>
+      <c r="X16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0.188050314</v>
+      </c>
+      <c r="B17">
+        <v>0.17641095000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.17651029400000001</v>
+      </c>
+      <c r="D17">
+        <v>0.18954659900000001</v>
+      </c>
+      <c r="E17">
+        <v>2.1058315329999999</v>
+      </c>
+      <c r="F17">
+        <v>2.2044534410000001</v>
+      </c>
+      <c r="G17">
+        <v>2.1787406909999998</v>
+      </c>
+      <c r="H17">
+        <v>0.24551355499999999</v>
+      </c>
+      <c r="I17">
+        <v>0.47654018799999998</v>
+      </c>
+      <c r="J17">
+        <v>0.221297837</v>
+      </c>
+      <c r="K17">
+        <v>0.218853821</v>
+      </c>
+      <c r="L17">
+        <v>0.238240918</v>
+      </c>
+      <c r="M17">
+        <v>0.46993865000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.5895765470000001</v>
+      </c>
+      <c r="O17">
+        <v>0.14889529300000001</v>
+      </c>
+      <c r="P17">
+        <v>0.146757679</v>
+      </c>
+      <c r="Q17">
+        <v>0.247487437</v>
+      </c>
+      <c r="R17">
+        <v>0.13610038599999999</v>
+      </c>
+      <c r="S17">
+        <v>1.293300654</v>
+      </c>
+      <c r="T17">
+        <v>1.5087235999999999</v>
+      </c>
+      <c r="U17">
+        <v>0.174022699</v>
+      </c>
+      <c r="V17">
+        <v>1.4112994350000001</v>
+      </c>
+      <c r="W17">
+        <v>1.6050420169999999</v>
+      </c>
+      <c r="X17">
+        <v>1.5841081990000001</v>
+      </c>
+      <c r="Y17">
+        <v>0.16403785500000001</v>
+      </c>
+      <c r="Z17">
+        <v>0.15047021899999999</v>
+      </c>
+      <c r="AA17">
+        <v>2.9658022869999998</v>
+      </c>
+      <c r="AB17">
+        <v>3.6167621780000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.42044833199999998</v>
+      </c>
+      <c r="AD17">
+        <v>0.72311828</v>
+      </c>
+      <c r="AE17">
+        <v>3.5992996499999999</v>
+      </c>
+      <c r="AF17">
+        <v>0.27586206899999999</v>
+      </c>
+      <c r="AG17">
+        <v>0.32095490700000001</v>
       </c>
     </row>
   </sheetData>

--- a/문서화 자료/Result_ALL.xlsx
+++ b/문서화 자료/Result_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서화 자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B47829-CBBD-4569-B2A1-77E809A953CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D00E7-C116-405F-BF1B-68E948005A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>PROC Count</t>
-  </si>
-  <si>
-    <t>STOCK CountALL Count</t>
   </si>
   <si>
     <t>State Avg Time</t>
@@ -335,6 +332,34 @@
     <t>STOCK4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>GEN.AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK.AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC.AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK.AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL.AVG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -401,6 +426,1944 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:t>설비 비율</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Result_ALL!$C$43:$F$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GEN Count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK Count</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC Count</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Result_ALL!$C$44:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1741-4135-A7EC-39D69A88AD72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Buf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Count3 Avg-1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13034514435695538"/>
+          <c:y val="0.19541666666666666"/>
+          <c:w val="0.82050218722659662"/>
+          <c:h val="0.68792468649752114"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Buf Count Avg'!$A$16,'Buf Count Avg'!$B$16,'Buf Count Avg'!$C$16,'Buf Count Avg'!$D$16,'Buf Count Avg'!$E$16,'Buf Count Avg'!$F$16,'Buf Count Avg'!$G$16,'Buf Count Avg'!$H$16,'Buf Count Avg'!$I$16,'Buf Count Avg'!$J$16,'Buf Count Avg'!$K$16,'Buf Count Avg'!$L$16,'Buf Count Avg'!$M$16,'Buf Count Avg'!$N$16,'Buf Count Avg'!$O$16,'Buf Count Avg'!$P$16,'Buf Count Avg'!$Q$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>GEN0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GEN1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GEN2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GEN3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GEN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GEN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GEN6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRACK7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TRACK8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TRACK9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TRACK10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TRACK11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TRACK12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TRACK13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TRACK14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TRACK15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>TRACK16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Buf Count Avg'!$A$17,'Buf Count Avg'!$B$17,'Buf Count Avg'!$C$17,'Buf Count Avg'!$D$17,'Buf Count Avg'!$E$17,'Buf Count Avg'!$F$17,'Buf Count Avg'!$G$17,'Buf Count Avg'!$H$17,'Buf Count Avg'!$I$17,'Buf Count Avg'!$J$17,'Buf Count Avg'!$K$17,'Buf Count Avg'!$L$17,'Buf Count Avg'!$M$17,'Buf Count Avg'!$N$17,'Buf Count Avg'!$O$17,'Buf Count Avg'!$P$17,'Buf Count Avg'!$Q$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.188050314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17641095000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17651029400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18954659900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1058315329999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2044534410000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1787406909999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24551355499999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47654018799999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.221297837</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.218853821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.238240918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46993865000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5895765470000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14889529300000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.146757679</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.247487437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78C5-483F-9FB4-F5AE978E49A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1196524720"/>
+        <c:axId val="1187336576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1196524720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1187336576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1187336576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196524720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Buf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Count3  Avg-2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Buf Count Avg'!$R$16,'Buf Count Avg'!$S$16,'Buf Count Avg'!$T$16,'Buf Count Avg'!$U$16,'Buf Count Avg'!$V$16,'Buf Count Avg'!$W$16,'Buf Count Avg'!$X$16,'Buf Count Avg'!$Y$16,'Buf Count Avg'!$Z$16,'Buf Count Avg'!$AA$16,'Buf Count Avg'!$AB$16,'Buf Count Avg'!$AC$16,'Buf Count Avg'!$AD$16,'Buf Count Avg'!$AE$16,'Buf Count Avg'!$AF$16,'Buf Count Avg'!$AG$16)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>TRACK17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRACK19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TRACK20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TRACK21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TRACK22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>TRACK23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRACK24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TRACK25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PROC26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PROC27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PROC28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PROC29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PROC30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>STOCK31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>STOCK32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Buf Count Avg'!$R$17,'Buf Count Avg'!$S$17,'Buf Count Avg'!$T$17,'Buf Count Avg'!$U$17,'Buf Count Avg'!$V$17,'Buf Count Avg'!$W$17,'Buf Count Avg'!$X$17,'Buf Count Avg'!$Y$17,'Buf Count Avg'!$Z$17,'Buf Count Avg'!$AA$17,'Buf Count Avg'!$AB$17,'Buf Count Avg'!$AC$17,'Buf Count Avg'!$AD$17,'Buf Count Avg'!$AE$17,'Buf Count Avg'!$AF$17,'Buf Count Avg'!$AG$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.13610038599999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.293300654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5087235999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.174022699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4112994350000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6050420169999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5841081990000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16403785500000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15047021899999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9658022869999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6167621780000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42044833199999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72311828</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5992996499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27586206899999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.32095490700000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-650B-4FF7-9E96-2CF798A63F8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1195620768"/>
+        <c:axId val="1199775328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1195620768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1199775328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1199775328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1195620768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Buf</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Count Total Avg</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Buf Count Avg'!$A$19,'Buf Count Avg'!$B$19,'Buf Count Avg'!$C$19,'Buf Count Avg'!$D$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GEN.AVG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC.AVG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK.AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Buf Count Avg'!$A$20,'Buf Count Avg'!$B$20,'Buf Count Avg'!$C$20,'Buf Count Avg'!$D$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71798822990909095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53554939348148156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2764669379999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0891246682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D125-4A49-9C1E-368361A7A505}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1354247152"/>
+        <c:axId val="1036216864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1354247152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036216864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1036216864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1354247152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비 비율</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Result_ALL!$C$23:$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GEN Count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK Count</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC Count</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Result_ALL!$C$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3B1-420F-8AAD-4E4764B6440A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비 비율</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Result_ALL!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GEN Count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK Count</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC Count</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Result_ALL!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A767-4942-93FF-D065DE48E5E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -696,7 +2659,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -999,7 +2962,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1302,7 +3265,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1605,7 +3568,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1923,7 +3886,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2290,6 +4253,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2529,6 +4612,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -3048,8 +5251,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3106,7 +5309,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3157,13 +5360,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3174,19 +5370,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3224,7 +5413,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3567,8 +5756,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3625,7 +5814,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3676,13 +5865,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3693,19 +5875,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3743,7 +5918,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4086,8 +6261,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4144,7 +6319,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4195,13 +6370,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4212,19 +6380,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4262,7 +6423,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4605,8 +6766,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4663,7 +6824,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4714,6 +6875,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4724,12 +6892,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4767,7 +6942,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5110,8 +7285,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5168,7 +7343,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5219,6 +7394,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5229,12 +7411,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5272,7 +7461,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5615,7 +7804,3206 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909CF67C-6B1D-45F5-AE96-9FCC0B2A8A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF084EA3-E3AF-D92F-D8BC-AA3E1D9CA49B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0524881-007B-89E8-CFEC-02228BEFA5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5764,7 +11152,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5833,6 +11221,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FC5B72-CD4C-B40C-5BBC-D4C6A7BED2A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920C8B1F-1A0F-04BD-A13D-AF6058A86BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA5ECC2-2ED6-9DB6-07C2-901096219065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6140,15 +11636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -6168,7 +11664,10 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6196,7 +11695,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -6262,18 +11761,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -6294,16 +11793,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -6322,7 +11821,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -6342,7 +11841,10 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -6370,7 +11872,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -6436,18 +11938,18 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -6468,16 +11970,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -6496,7 +11998,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -6516,7 +12018,10 @@
         <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>83</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -6544,7 +12049,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -6610,18 +12115,18 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
         <v>31</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>32</v>
-      </c>
-      <c r="C55" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -6642,16 +12147,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
         <v>34</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>35</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -6671,6 +12176,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6823,10 +12329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
-  <dimension ref="A2:AG17"/>
+  <dimension ref="A2:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="7" sqref="A16 A17 B16 B17 C16 C17 D16 D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6847,10 +12353,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
@@ -6895,25 +12401,25 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
       <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>75</v>
-      </c>
-      <c r="M11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.45">
@@ -6959,7 +12465,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.45">
@@ -6973,94 +12479,94 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>43</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
       <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>48</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>49</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>50</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>51</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>52</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>53</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>54</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>55</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>56</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>57</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>58</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>59</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>60</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>61</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>62</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>63</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>64</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>65</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>67</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>68</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>69</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>70</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>71</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.45">
@@ -7162,6 +12668,45 @@
       </c>
       <c r="AG17">
         <v>0.32095490700000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f>AVERAGE(A4,A12:C12,A17:G17)</f>
+        <v>0.71798822990909095</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B4:C4,D12:I12,H17:Z17)</f>
+        <v>0.53554939348148156</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(D4,J12:K12,AA17:AE17)</f>
+        <v>2.2764669379999996</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(E4,L12:M12,AF17:AG17)</f>
+        <v>1.0891246682</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(A20:D20)</f>
+        <v>1.1547823073976431</v>
       </c>
     </row>
   </sheetData>
